--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -195,19 +195,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -547,8 +547,12 @@
       <c r="F3" s="6">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H3" s="6">
+        <v>8</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="6"/>
       <c r="K3" s="1"/>
@@ -556,7 +560,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -565,7 +569,9 @@
         <v>0.78125</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="6"/>
@@ -578,11 +584,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -592,11 +598,11 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -629,7 +635,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -637,7 +643,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
@@ -645,13 +651,13 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
@@ -663,9 +669,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -677,9 +683,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -714,7 +720,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -730,7 +736,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -799,15 +805,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -815,13 +821,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -833,29 +839,29 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -884,15 +890,15 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
@@ -900,13 +906,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
@@ -918,33 +924,89 @@
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="1"/>
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="1"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -959,62 +1021,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -195,19 +195,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -553,14 +553,18 @@
       <c r="H3" s="6">
         <v>8</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="6"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -573,7 +577,9 @@
         <v>0.8125</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
       <c r="L4" s="6"/>
@@ -584,11 +590,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -598,11 +604,11 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -635,7 +641,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -643,7 +649,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
@@ -651,13 +657,13 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
@@ -669,9 +675,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -683,9 +689,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -720,7 +726,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -736,7 +742,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -805,15 +811,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -821,13 +827,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -839,29 +845,29 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -890,15 +896,15 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
@@ -906,13 +912,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
@@ -924,33 +930,89 @@
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="1"/>
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="1"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="B38:B39"/>
@@ -965,62 +1027,6 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -23,6 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Anna Sharuntsova.EXT</author>
+  </authors>
+  <commentList>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+недоработка 1 час</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
@@ -39,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +119,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -195,19 +242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +579,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -559,12 +606,18 @@
       <c r="J3" s="6">
         <v>7</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="K3" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L3" s="6">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -581,7 +634,9 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
@@ -590,11 +645,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -604,11 +659,11 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -641,7 +696,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -649,7 +704,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
@@ -657,13 +712,13 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
@@ -675,9 +730,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -689,9 +744,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -726,7 +781,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -742,7 +797,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -811,15 +866,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -827,13 +882,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -845,29 +900,29 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -896,15 +951,15 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
@@ -912,13 +967,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
@@ -930,33 +985,89 @@
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="1"/>
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="1"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -971,64 +1082,9 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -242,19 +242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +545,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -645,11 +645,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -659,11 +659,11 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -696,32 +696,64 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
+      <c r="C11" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H11" s="13">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="L11" s="6">
+        <v>8</v>
+      </c>
+      <c r="M11" s="7">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>0.75</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
     </row>
@@ -730,9 +762,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -744,9 +776,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -781,7 +813,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -797,7 +829,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
@@ -866,15 +898,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -882,13 +914,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -900,29 +932,29 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -951,15 +983,15 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
@@ -967,13 +999,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
@@ -985,33 +1017,89 @@
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="1"/>
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="10"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="1"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="B38:B39"/>
@@ -1026,62 +1114,6 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,27 +816,51 @@
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="6"/>
+      <c r="C19" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0.8125</v>
+      </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
       <c r="L20" s="6"/>

--- a/01.07 -02.08.xlsx
+++ b/01.07 -02.08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="586"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="586"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,30 @@
           </rPr>
           <t xml:space="preserve">
 недоработка 1 час</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+отработан час с первой недели</t>
         </r>
       </text>
     </comment>
@@ -242,19 +266,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +603,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -617,7 +641,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -645,11 +669,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
@@ -659,11 +683,11 @@
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
@@ -696,7 +720,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -714,7 +738,7 @@
       <c r="G11" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>8</v>
       </c>
       <c r="I11" s="1">
@@ -734,7 +758,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -746,7 +770,7 @@
       <c r="G12" s="1">
         <v>0.75</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1">
         <v>0.8125</v>
       </c>
@@ -762,9 +786,9 @@
         <v>2</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
       <c r="I14" s="1"/>
@@ -776,9 +800,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
@@ -813,7 +837,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -840,12 +864,16 @@
       <c r="J19" s="6">
         <v>9</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -862,7 +890,9 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>0.41319444444444442</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
     </row>
@@ -878,9 +908,15 @@
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -892,7 +928,9 @@
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
@@ -922,15 +960,15 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
@@ -938,13 +976,13 @@
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
       <c r="K28" s="1"/>
@@ -956,29 +994,29 @@
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
       <c r="F30" s="8"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="8"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -1007,15 +1045,15 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6"/>
       <c r="K35" s="1"/>
@@ -1023,13 +1061,13 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
@@ -1041,33 +1079,89 @@
         <v>2</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="1"/>
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="1"/>
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="9"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1082,62 +1176,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J35:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
